--- a/data/stockPortfolio.xlsx
+++ b/data/stockPortfolio.xlsx
@@ -386,23 +386,23 @@
         <v>1415.7</v>
       </c>
       <c r="E2" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(A2)"),529.32)</f>
-        <v>529.32</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(A2)"),532.31)</f>
+        <v>532.31</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="4">
         <f t="shared" ref="G2:G12" si="2">(E2/B2)-1</f>
-        <v>4.608391608</v>
+        <v>4.640072049</v>
       </c>
       <c r="H2" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(A2,""changepct"")"),-1.96)</f>
-        <v>-1.96</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(A2,""changepct"")"),0.44)</f>
+        <v>0.44</v>
       </c>
       <c r="I2" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(A2,""change"")"),-10.59)</f>
-        <v>-10.59</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(A2,""change"")"),2.31)</f>
+        <v>2.31</v>
       </c>
       <c r="J2" s="4"/>
     </row>
@@ -421,23 +421,23 @@
         <v>1395.72</v>
       </c>
       <c r="E3" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(A3)"),575.4)</f>
-        <v>575.4</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(A3)"),561.55)</f>
+        <v>561.55</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="4">
         <f t="shared" si="2"/>
-        <v>0.649041355</v>
+        <v>0.6093485799</v>
       </c>
       <c r="H3" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(A3,""changepct"")"),-0.51)</f>
-        <v>-0.51</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(A3,""changepct"")"),-0.79)</f>
+        <v>-0.79</v>
       </c>
       <c r="I3" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(A3,""change"")"),-2.94)</f>
-        <v>-2.94</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(A3,""change"")"),-4.47)</f>
+        <v>-4.47</v>
       </c>
       <c r="J3" s="4"/>
     </row>
@@ -456,23 +456,23 @@
         <v>1248.8</v>
       </c>
       <c r="E4" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(A4)"),39.82)</f>
-        <v>39.82</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(A4)"),38.89)</f>
+        <v>38.89</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="4">
         <f t="shared" si="2"/>
-        <v>0.1160313901</v>
+        <v>0.08996636771</v>
       </c>
       <c r="H4" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(A4,""changepct"")"),2.95)</f>
-        <v>2.95</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(A4,""changepct"")"),-1.27)</f>
+        <v>-1.27</v>
       </c>
       <c r="I4" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(A4,""change"")"),1.14)</f>
-        <v>1.14</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(A4,""change"")"),-0.5)</f>
+        <v>-0.5</v>
       </c>
       <c r="J4" s="4"/>
     </row>
@@ -491,23 +491,23 @@
         <v>968.4</v>
       </c>
       <c r="E5" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(A5)"),73.5)</f>
-        <v>73.5</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(A5)"),76.4)</f>
+        <v>76.4</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G5" s="4">
         <f t="shared" si="2"/>
-        <v>-0.241016109</v>
+        <v>-0.2110698059</v>
       </c>
       <c r="H5" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(A5,""changepct"")"),-1.37)</f>
-        <v>-1.37</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(A5,""changepct"")"),0.92)</f>
+        <v>0.92</v>
       </c>
       <c r="I5" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(A5,""change"")"),-1.02)</f>
-        <v>-1.02</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(A5,""change"")"),0.7)</f>
+        <v>0.7</v>
       </c>
       <c r="J5" s="4"/>
     </row>
@@ -526,23 +526,23 @@
         <v>1198.75</v>
       </c>
       <c r="E6" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(A6)"),48.34)</f>
-        <v>48.34</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(A6)"),48.35)</f>
+        <v>48.35</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G6" s="4">
         <f t="shared" si="2"/>
-        <v>0.008133472367</v>
+        <v>0.008342022941</v>
       </c>
       <c r="H6" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(A6,""changepct"")"),-0.21)</f>
-        <v>-0.21</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(A6,""changepct"")"),-1.47)</f>
+        <v>-1.47</v>
       </c>
       <c r="I6" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(A6,""change"")"),-0.1)</f>
-        <v>-0.1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(A6,""change"")"),-0.72)</f>
+        <v>-0.72</v>
       </c>
       <c r="J6" s="4"/>
     </row>
@@ -561,23 +561,23 @@
         <v>975.04</v>
       </c>
       <c r="E7" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(A7)"),87.95)</f>
-        <v>87.95</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(A7)"),99.78)</f>
+        <v>99.78</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="4">
         <f t="shared" si="2"/>
-        <v>-0.2783885789</v>
+        <v>-0.1813258943</v>
       </c>
       <c r="H7" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(A7,""changepct"")"),-1.15)</f>
-        <v>-1.15</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(A7,""changepct"")"),4.59)</f>
+        <v>4.59</v>
       </c>
       <c r="I7" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(A7,""change"")"),-1.02)</f>
-        <v>-1.02</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(A7,""change"")"),4.38)</f>
+        <v>4.38</v>
       </c>
       <c r="J7" s="4"/>
     </row>
@@ -596,23 +596,23 @@
         <v>1098.2</v>
       </c>
       <c r="E8" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(A8)"),199.29)</f>
-        <v>199.29</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(A8)"),199.81)</f>
+        <v>199.81</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" si="2"/>
-        <v>0.8146967765</v>
+        <v>0.8194317975</v>
       </c>
       <c r="H8" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(A8,""changepct"")"),-0.36)</f>
-        <v>-0.36</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(A8,""changepct"")"),0.24)</f>
+        <v>0.24</v>
       </c>
       <c r="I8" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(A8,""change"")"),-0.71)</f>
-        <v>-0.71</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(A8,""change"")"),0.47)</f>
+        <v>0.47</v>
       </c>
       <c r="J8" s="4"/>
     </row>
@@ -631,23 +631,23 @@
         <v>1071.48</v>
       </c>
       <c r="E9" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(A9)"),97.37)</f>
-        <v>97.37</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(A9)"),97.04)</f>
+        <v>97.04</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="4">
         <f t="shared" si="2"/>
-        <v>0.0904916564</v>
+        <v>0.0867958338</v>
       </c>
       <c r="H9" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(A9,""changepct"")"),-0.17)</f>
-        <v>-0.17</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(A9,""changepct"")"),-0.01)</f>
+        <v>-0.01</v>
       </c>
       <c r="I9" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(A9,""change"")"),-0.17)</f>
-        <v>-0.17</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(A9,""change"")"),-0.01)</f>
+        <v>-0.01</v>
       </c>
       <c r="J9" s="4"/>
     </row>
@@ -666,23 +666,23 @@
         <v>665.6</v>
       </c>
       <c r="E10" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(A10)"),15.49)</f>
-        <v>15.49</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(A10)"),15.6)</f>
+        <v>15.6</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="4">
         <f t="shared" si="2"/>
-        <v>-0.06911057692</v>
+        <v>-0.0625</v>
       </c>
       <c r="H10" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(A10,""changepct"")"),4.73)</f>
-        <v>4.73</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(A10,""changepct"")"),-0.73)</f>
+        <v>-0.73</v>
       </c>
       <c r="I10" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(A10,""change"")"),0.7)</f>
-        <v>0.7</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(A10,""change"")"),-0.11)</f>
+        <v>-0.11</v>
       </c>
       <c r="J10" s="4"/>
     </row>
@@ -701,23 +701,23 @@
         <v>1024.4</v>
       </c>
       <c r="E11" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(A11)"),189.03)</f>
-        <v>189.03</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(A11)"),190.39)</f>
+        <v>190.39</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="4">
         <f t="shared" si="2"/>
-        <v>0.8452752831</v>
+        <v>0.8585513471</v>
       </c>
       <c r="H11" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(A11,""changepct"")"),-0.82)</f>
-        <v>-0.82</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(A11,""changepct"")"),0.75)</f>
+        <v>0.75</v>
       </c>
       <c r="I11" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(A11,""change"")"),-1.57)</f>
-        <v>-1.57</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(A11,""change"")"),1.41)</f>
+        <v>1.41</v>
       </c>
       <c r="J11" s="4"/>
     </row>
@@ -736,23 +736,23 @@
         <v>1422</v>
       </c>
       <c r="E12" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(A12)"),466.24)</f>
-        <v>466.24</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(A12)"),462.81)</f>
+        <v>462.81</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="4">
         <f t="shared" si="2"/>
-        <v>0.967257384</v>
+        <v>0.9527848101</v>
       </c>
       <c r="H12" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(A12,""changepct"")"),-0.28)</f>
-        <v>-0.28</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(A12,""changepct"")"),0.71)</f>
+        <v>0.71</v>
       </c>
       <c r="I12" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(A12,""change"")"),-1.32)</f>
-        <v>-1.32</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(A12,""change"")"),3.27)</f>
+        <v>3.27</v>
       </c>
       <c r="J12" s="4"/>
     </row>
